--- a/libertadores/datasets_liberta/confrontos_fase2_libertadores.xlsx
+++ b/libertadores/datasets_liberta/confrontos_fase2_libertadores.xlsx
@@ -73,7 +73,7 @@
     <t>Real SCI</t>
   </si>
   <si>
-    <t>TORRESMO COM PINGA</t>
+    <t>FC Los Castilho</t>
   </si>
   <si>
     <t>Laranjja Mecannica</t>

--- a/libertadores/datasets_liberta/confrontos_fase2_libertadores.xlsx
+++ b/libertadores/datasets_liberta/confrontos_fase2_libertadores.xlsx
@@ -43,27 +43,27 @@
     <t>Grêmio imortal 37</t>
   </si>
   <si>
-    <t>Super Vasco f.c</t>
+    <t>Tatols Beants F.C</t>
+  </si>
+  <si>
+    <t>pura bucha /botafogo</t>
+  </si>
+  <si>
+    <t>Tabajara de Inhaua FC2</t>
+  </si>
+  <si>
+    <t>Texas Club 2025</t>
+  </si>
+  <si>
+    <t>cartola scheuer</t>
+  </si>
+  <si>
+    <t>lsauer fc</t>
   </si>
   <si>
     <t>BORGES ITAQUI F.C.</t>
   </si>
   <si>
-    <t>Tabajara de Inhaua FC2</t>
-  </si>
-  <si>
-    <t>Texas Club 2025</t>
-  </si>
-  <si>
-    <t>cartola scheuer</t>
-  </si>
-  <si>
-    <t>HS SPORTS F.C</t>
-  </si>
-  <si>
-    <t>pura bucha /botafogo</t>
-  </si>
-  <si>
     <t>KING LEONN</t>
   </si>
   <si>
@@ -73,7 +73,7 @@
     <t>Real SCI</t>
   </si>
   <si>
-    <t>FC Los Castilho</t>
+    <t>TORRESMO COM PINGA</t>
   </si>
   <si>
     <t>Laranjja Mecannica</t>

--- a/libertadores/datasets_liberta/confrontos_fase2_libertadores.xlsx
+++ b/libertadores/datasets_liberta/confrontos_fase2_libertadores.xlsx
@@ -49,37 +49,37 @@
     <t>pura bucha /botafogo</t>
   </si>
   <si>
+    <t>lsauer fc</t>
+  </si>
+  <si>
+    <t>Texas Club 2025</t>
+  </si>
+  <si>
+    <t>Analove10 ITAQUI GRANDE!!</t>
+  </si>
+  <si>
     <t>Tabajara de Inhaua FC2</t>
   </si>
   <si>
-    <t>Texas Club 2025</t>
-  </si>
-  <si>
-    <t>cartola scheuer</t>
-  </si>
-  <si>
-    <t>lsauer fc</t>
-  </si>
-  <si>
-    <t>BORGES ITAQUI F.C.</t>
+    <t>Dom Camillo68</t>
   </si>
   <si>
     <t>KING LEONN</t>
   </si>
   <si>
+    <t>Laranjja Mecannica</t>
+  </si>
+  <si>
+    <t>Real SCI</t>
+  </si>
+  <si>
+    <t>TORRESMO COM PINGA</t>
+  </si>
+  <si>
     <t>Gig@ntte</t>
   </si>
   <si>
-    <t>Real SCI</t>
-  </si>
-  <si>
-    <t>TORRESMO COM PINGA</t>
-  </si>
-  <si>
-    <t>Laranjja Mecannica</t>
-  </si>
-  <si>
-    <t>F.C. Rei Das Copas</t>
+    <t>KillerColorado</t>
   </si>
   <si>
     <t>Lá do Itaqui</t>

--- a/libertadores/datasets_liberta/confrontos_fase2_libertadores.xlsx
+++ b/libertadores/datasets_liberta/confrontos_fase2_libertadores.xlsx
@@ -43,16 +43,16 @@
     <t>Grêmio imortal 37</t>
   </si>
   <si>
+    <t>Texas Club 2025</t>
+  </si>
+  <si>
+    <t>pura bucha /botafogo</t>
+  </si>
+  <si>
+    <t>lsauer fc</t>
+  </si>
+  <si>
     <t>Tatols Beants F.C</t>
-  </si>
-  <si>
-    <t>pura bucha /botafogo</t>
-  </si>
-  <si>
-    <t>lsauer fc</t>
-  </si>
-  <si>
-    <t>Texas Club 2025</t>
   </si>
   <si>
     <t>Analove10 ITAQUI GRANDE!!</t>

--- a/libertadores/datasets_liberta/confrontos_fase2_libertadores.xlsx
+++ b/libertadores/datasets_liberta/confrontos_fase2_libertadores.xlsx
@@ -40,30 +40,30 @@
     <t>Grupo L</t>
   </si>
   <si>
-    <t>Grêmio imortal 37</t>
+    <t>Analove10 ITAQUI GRANDE!!</t>
+  </si>
+  <si>
+    <t>Super Vasco f.c</t>
+  </si>
+  <si>
+    <t>Dom Camillo68</t>
+  </si>
+  <si>
+    <t>lsauer fc</t>
   </si>
   <si>
     <t>Texas Club 2025</t>
   </si>
   <si>
+    <t>TEAM LOPES 99</t>
+  </si>
+  <si>
+    <t>Tabajara de Inhaua FC2</t>
+  </si>
+  <si>
     <t>pura bucha /botafogo</t>
   </si>
   <si>
-    <t>lsauer fc</t>
-  </si>
-  <si>
-    <t>Tatols Beants F.C</t>
-  </si>
-  <si>
-    <t>Analove10 ITAQUI GRANDE!!</t>
-  </si>
-  <si>
-    <t>Tabajara de Inhaua FC2</t>
-  </si>
-  <si>
-    <t>Dom Camillo68</t>
-  </si>
-  <si>
     <t>KING LEONN</t>
   </si>
   <si>
@@ -73,16 +73,16 @@
     <t>Real SCI</t>
   </si>
   <si>
+    <t>Lá do Itaqui</t>
+  </si>
+  <si>
+    <t>Gig@ntte</t>
+  </si>
+  <si>
+    <t>KillerColorado</t>
+  </si>
+  <si>
     <t>TORRESMO COM PINGA</t>
-  </si>
-  <si>
-    <t>Gig@ntte</t>
-  </si>
-  <si>
-    <t>KillerColorado</t>
-  </si>
-  <si>
-    <t>Lá do Itaqui</t>
   </si>
   <si>
     <t>Gremiomaniasm</t>
